--- a/01_spreadsheet/results/bioblitz_2019_Green.xlsx
+++ b/01_spreadsheet/results/bioblitz_2019_Green.xlsx
@@ -1,391 +1,444 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jasmine/tmp/bold-workflow/01_spreadsheet/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3500" yWindow="2460" windowWidth="16700" windowHeight="15080" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Voucher Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Taxonomy" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Specimen Details" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Collection Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Voucher Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxonomy" sheetId="2" r:id="rId2"/>
+    <sheet name="Specimen Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Collection Data" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
-  <si>
-    <t xml:space="preserve">Sample ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museum ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution Storing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1866</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">University of British Columbia, Herbarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTM1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subfamily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomy Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulvophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulvales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulvaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulva intestinalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alana Breitkreutz, Jasmine Lai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosenvingiella sp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulva fenestrata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soren Huber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulva sp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer Clark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorochytrium stage of Acrosiphonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick T. Martone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trebouxiophyceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prasiolales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prasiolaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prasiola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prasiola sp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulotrichales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulotrichaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrosiphonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrosiphonia arcta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megan Fass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulva linza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alana Breitkreutz, Soren Huber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voucher Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tissue Descriptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associated Taxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associated Specimens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External URLs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country/Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State/Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exact Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elevation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elevation Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinate Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Date Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Event ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Aug-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadra Island</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="134">
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Field ID</t>
+  </si>
+  <si>
+    <t>Museum ID</t>
+  </si>
+  <si>
+    <t>Collection Code</t>
+  </si>
+  <si>
+    <t>Institution Storing</t>
+  </si>
+  <si>
+    <t>PTM1866</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>University of British Columbia, Herbarium</t>
+  </si>
+  <si>
+    <t>PTM1868</t>
+  </si>
+  <si>
+    <t>PTM1869</t>
+  </si>
+  <si>
+    <t>PTM1872</t>
+  </si>
+  <si>
+    <t>PTM1873</t>
+  </si>
+  <si>
+    <t>PTM1886</t>
+  </si>
+  <si>
+    <t>PTM1889</t>
+  </si>
+  <si>
+    <t>PTM1890</t>
+  </si>
+  <si>
+    <t>PTM1901</t>
+  </si>
+  <si>
+    <t>PTM1914</t>
+  </si>
+  <si>
+    <t>PTM1918</t>
+  </si>
+  <si>
+    <t>PTM1922</t>
+  </si>
+  <si>
+    <t>PTM1923</t>
+  </si>
+  <si>
+    <t>PTM1930</t>
+  </si>
+  <si>
+    <t>PTM1933</t>
+  </si>
+  <si>
+    <t>PTM1942</t>
+  </si>
+  <si>
+    <t>PTM1955</t>
+  </si>
+  <si>
+    <t>PTM1961</t>
+  </si>
+  <si>
+    <t>PTM1983</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Subfamily</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Identifier Email</t>
+  </si>
+  <si>
+    <t>Identifier Institution</t>
+  </si>
+  <si>
+    <t>Identification Method</t>
+  </si>
+  <si>
+    <t>Taxonomy Notes</t>
+  </si>
+  <si>
+    <t>Chlorophyta</t>
+  </si>
+  <si>
+    <t>Ulvophyceae</t>
+  </si>
+  <si>
+    <t>Ulvales</t>
+  </si>
+  <si>
+    <t>Ulvaceae</t>
+  </si>
+  <si>
+    <t>Ulva</t>
+  </si>
+  <si>
+    <t>Ulva intestinalis</t>
+  </si>
+  <si>
+    <t>Alana Breitkreutz, Jasmine Lai</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+  </si>
+  <si>
+    <t>Rosenvingiella sp.</t>
+  </si>
+  <si>
+    <t>Ulva fenestrata</t>
+  </si>
+  <si>
+    <t>Soren Huber</t>
+  </si>
+  <si>
+    <t>Ulva sp.</t>
+  </si>
+  <si>
+    <t>Jennifer Clark</t>
+  </si>
+  <si>
+    <t>Chlorochytrium stage of Acrosiphonia</t>
+  </si>
+  <si>
+    <t>Patrick T. Martone</t>
+  </si>
+  <si>
+    <t>Trebouxiophyceae</t>
+  </si>
+  <si>
+    <t>Prasiolales</t>
+  </si>
+  <si>
+    <t>Prasiolaceae</t>
+  </si>
+  <si>
+    <t>Prasiola</t>
+  </si>
+  <si>
+    <t>Prasiola sp.</t>
+  </si>
+  <si>
+    <t>Caldophora columbiana</t>
+  </si>
+  <si>
+    <t>Brenton Twist, Lauran Liggan</t>
+  </si>
+  <si>
+    <t>Kornmanniaceae</t>
+  </si>
+  <si>
+    <t>Blidingia</t>
+  </si>
+  <si>
+    <t>Blidingia minima var. minima</t>
+  </si>
+  <si>
+    <t>Ulotrichales</t>
+  </si>
+  <si>
+    <t>Ulotrichaceae</t>
+  </si>
+  <si>
+    <t>Acrosiphonia</t>
+  </si>
+  <si>
+    <t>Acrosiphonia arcta</t>
+  </si>
+  <si>
+    <t>Megan Fass</t>
+  </si>
+  <si>
+    <t>Ulva linza</t>
+  </si>
+  <si>
+    <t>Alana Breitkreutz, Soren Huber</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Reproduction</t>
+  </si>
+  <si>
+    <t>Life Stage</t>
+  </si>
+  <si>
+    <t>Extra Info</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Voucher Status</t>
+  </si>
+  <si>
+    <t>Tissue Descriptor</t>
+  </si>
+  <si>
+    <t>Associated Taxa</t>
+  </si>
+  <si>
+    <t>Associated Specimens</t>
+  </si>
+  <si>
+    <t>External URLs</t>
+  </si>
+  <si>
+    <t>Collectors</t>
+  </si>
+  <si>
+    <t>Collection Date</t>
+  </si>
+  <si>
+    <t>Country/Ocean</t>
+  </si>
+  <si>
+    <t>State/Province</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Exact Site</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Elevation Precision</t>
+  </si>
+  <si>
+    <t>Depth Precision</t>
+  </si>
+  <si>
+    <t>GPS Source</t>
+  </si>
+  <si>
+    <t>Coordinate Accuracy</t>
+  </si>
+  <si>
+    <t>Event Time</t>
+  </si>
+  <si>
+    <t>Collection Date Accuracy</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Sampling Protocol</t>
+  </si>
+  <si>
+    <t>Collection Notes</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t>Collection Event ID</t>
+  </si>
+  <si>
+    <t>14-Aug-2019</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Quadra Island</t>
   </si>
   <si>
     <t xml:space="preserve"> Open Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">50.13426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.19437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky, low intertidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky, low intertidal, epiphytic on Sargassum muticum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid intertidal, epiphytic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid intertidal, on rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedrock, mid tidepool, with Calliarthron tuberculosum and fleshy reds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drift, inside Neodilsea borealis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky, tidepool, mid intertidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedrock, high interdial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epilithic, high tidepool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedrock, low-shore, rock wall, epiphytic with Fucus distichus, with fleshy red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower mid-intertidal, with Fucus distichus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-Aug-2019</t>
+    <t>50.13426</t>
+  </si>
+  <si>
+    <t>-125.19437</t>
+  </si>
+  <si>
+    <t>Rocky, low intertidal</t>
+  </si>
+  <si>
+    <t>Rocky, low intertidal, epiphytic on Sargassum muticum</t>
+  </si>
+  <si>
+    <t>Mid intertidal, epiphytic</t>
+  </si>
+  <si>
+    <t>Mid intertidal, on rock</t>
+  </si>
+  <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Bedrock, mid tidepool, with Calliarthron tuberculosum and fleshy reds</t>
+  </si>
+  <si>
+    <t>Drift, inside Neodilsea borealis</t>
+  </si>
+  <si>
+    <t>Rocky, tidepool, mid intertidal</t>
+  </si>
+  <si>
+    <t>Bedrock, high interdial</t>
+  </si>
+  <si>
+    <t>Mid intertidal</t>
+  </si>
+  <si>
+    <t>Epilithic, high tidepool</t>
+  </si>
+  <si>
+    <t>Bedrock, low-shore, rock wall, epiphytic with Fucus distichus, with fleshy red</t>
+  </si>
+  <si>
+    <t>Lower mid-intertidal, with Fucus distichus</t>
+  </si>
+  <si>
+    <t>Bedrock, high intertidal on dry rock</t>
+  </si>
+  <si>
+    <t>15-Aug-2019</t>
   </si>
   <si>
     <t xml:space="preserve"> North of Yaculta</t>
   </si>
   <si>
-    <t xml:space="preserve">50.02962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.20238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low intertidal on limpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low intertidal, epilithic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low intertidal, epiphytic on Nereocystis</t>
+    <t>50.02962</t>
+  </si>
+  <si>
+    <t>-125.20238</t>
+  </si>
+  <si>
+    <t>Low intertidal on limpet</t>
+  </si>
+  <si>
+    <t>Low intertidal, epilithic</t>
+  </si>
+  <si>
+    <t>Low intertidal, epiphytic on Nereocystis</t>
+  </si>
+  <si>
+    <t>Rosenvingiella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caldophora </t>
+  </si>
+  <si>
+    <t>Cladophoraceae</t>
+  </si>
+  <si>
+    <t>Cladophorales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,6 +474,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -702,14 +761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,14 +785,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -741,14 +799,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -756,14 +813,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -771,14 +827,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -786,14 +841,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -801,14 +855,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -816,14 +869,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -831,14 +883,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -846,14 +897,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -861,14 +911,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -876,14 +925,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -891,14 +939,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -906,14 +953,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -921,14 +967,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>6</v>
       </c>
@@ -936,14 +981,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -951,14 +995,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -966,14 +1009,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -981,92 +1023,124 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2"/>
+        <v>41</v>
+      </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -1075,27 +1149,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
       <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
@@ -1104,35 +1187,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4"/>
+        <v>41</v>
+      </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4"/>
+        <v>43</v>
+      </c>
       <c r="J4" t="s">
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
@@ -1141,38 +1222,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5"/>
+        <v>41</v>
+      </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
       <c r="L5" t="s">
         <v>6</v>
       </c>
@@ -1180,37 +1260,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6"/>
+        <v>41</v>
+      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>6</v>
@@ -1219,37 +1298,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7"/>
+        <v>41</v>
+      </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -1258,27 +1336,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
@@ -1287,37 +1374,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9"/>
+        <v>41</v>
+      </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
         <v>6</v>
@@ -1326,38 +1412,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10"/>
+        <v>41</v>
+      </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
       <c r="L10" t="s">
         <v>6</v>
       </c>
@@ -1365,37 +1450,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11"/>
+        <v>55</v>
+      </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
         <v>6</v>
@@ -1404,38 +1488,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12"/>
+        <v>132</v>
+      </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
       <c r="L12" t="s">
         <v>6</v>
       </c>
@@ -1443,37 +1526,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13"/>
+        <v>41</v>
+      </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
         <v>6</v>
@@ -1482,28 +1564,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14"/>
+        <v>41</v>
+      </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
@@ -1512,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
         <v>6</v>
@@ -1521,37 +1602,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15"/>
+        <v>41</v>
+      </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
@@ -1560,37 +1640,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16"/>
+        <v>60</v>
+      </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
         <v>6</v>
@@ -1599,37 +1678,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17"/>
+        <v>64</v>
+      </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
         <v>6</v>
@@ -1638,102 +1716,176 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" t="s">
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -1759,14 +1911,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1792,14 +1943,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -1825,14 +1975,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -1858,14 +2007,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1891,14 +2039,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1924,14 +2071,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -1957,14 +2103,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -1990,14 +2135,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -2023,14 +2167,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -2056,14 +2199,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -2089,14 +2231,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -2122,14 +2263,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -2155,14 +2295,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>6</v>
       </c>
@@ -2188,14 +2327,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -2221,14 +2359,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -2254,14 +2391,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -2284,95 +2420,166 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="19" max="19" width="42.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="S1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="T1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="U1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="V1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="W1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2380,28 +2587,28 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -2428,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="T2" t="s">
         <v>6</v>
@@ -2443,7 +2650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2451,28 +2658,28 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
@@ -2499,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="T3" t="s">
         <v>6</v>
@@ -2514,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2522,28 +2729,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
@@ -2570,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="T4" t="s">
         <v>6</v>
@@ -2585,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2593,28 +2800,28 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
@@ -2641,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -2656,7 +2863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2664,28 +2871,28 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
@@ -2712,7 +2919,7 @@
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T6" t="s">
         <v>6</v>
@@ -2727,7 +2934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2735,28 +2942,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
@@ -2783,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="T7" t="s">
         <v>6</v>
@@ -2798,7 +3005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2806,28 +3013,28 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -2854,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -2869,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2877,28 +3084,28 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2925,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="T9" t="s">
         <v>6</v>
@@ -2940,7 +3147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2948,28 +3155,28 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
@@ -2996,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -3011,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3019,28 +3226,28 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -3067,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -3082,7 +3289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3090,28 +3297,28 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
@@ -3138,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
         <v>6</v>
@@ -3153,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3161,28 +3368,28 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -3209,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="T13" t="s">
         <v>6</v>
@@ -3224,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3232,28 +3439,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -3280,7 +3487,7 @@
         <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s">
         <v>6</v>
@@ -3295,7 +3502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3303,28 +3510,28 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
@@ -3351,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T15" t="s">
         <v>6</v>
@@ -3366,7 +3573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3374,28 +3581,28 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -3422,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
         <v>6</v>
@@ -3437,7 +3644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3445,28 +3652,28 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
@@ -3493,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="T17" t="s">
         <v>6</v>
@@ -3508,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3516,28 +3723,28 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
@@ -3564,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="S18" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="T18" t="s">
         <v>6</v>
@@ -3576,11 +3783,153 @@
         <v>6</v>
       </c>
       <c r="W18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" t="s">
+        <v>129</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>